--- a/assn2/graph nlp 2.xlsx
+++ b/assn2/graph nlp 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Some terms in general</t>
   </si>
@@ -39,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,24 +77,41 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6893599386302903E-2"/>
-          <c:y val="7.8285440126435804E-2"/>
+          <c:x val="0.15163453175391201"/>
+          <c:y val="0.10122450822679423"/>
           <c:w val="0.83023363400963457"/>
           <c:h val="0.84036636045494317"/>
         </c:manualLayout>
@@ -102,12 +119,14 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Accuracy</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$B$6</c:f>
@@ -162,38 +181,56 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75931648"/>
-        <c:axId val="75933184"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="104950400"/>
+        <c:axId val="104956288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75931648"/>
+        <c:axId val="104950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75933184"/>
+        <c:crossAx val="104956288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75933184"/>
+        <c:axId val="104956288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75931648"/>
+        <c:crossAx val="104950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -207,15 +244,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -313,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -347,6 +385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,21 +561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>38</v>
       </c>
@@ -544,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -552,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
@@ -560,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -568,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
@@ -576,11 +615,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>79.7</v>
+      </c>
+      <c r="B45" t="s">
         <v>5</v>
       </c>
     </row>
@@ -591,24 +730,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
